--- a/WIP/Users/LucPT/FAP_TestViewpoint_Comment_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_Comment_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -980,9 +980,6 @@
     <t>Chỉ tiêu thể hiện là đang phù hợp ở mức độ như thế nào trong quy cách・quy tắc・tiêu chuẩn (của protocol v.v…)liên quan đến tính linh động</t>
   </si>
   <si>
-    <t>Edit profile screen</t>
-  </si>
-  <si>
     <t>Edit</t>
   </si>
   <si>
@@ -1009,10 +1006,6 @@
     <t>click "OK" button</t>
   </si>
   <si>
-    <t>Check display:
--Browser: Firefox, Chrome, IE</t>
-  </si>
-  <si>
     <t>FLY AWAY PLUS</t>
   </si>
   <si>
@@ -1082,6 +1075,13 @@
   </si>
   <si>
     <t>Display confirm popup “Delete this Comment?”</t>
+  </si>
+  <si>
+    <t>Check display:
+-Browser: Firefox, Chrome</t>
+  </si>
+  <si>
+    <t>Comment screen</t>
   </si>
 </sst>
 </file>
@@ -3105,6 +3105,27 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="198" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3122,27 +3143,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3540,6 +3540,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>639127</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="647700"/>
+          <a:ext cx="6820852" cy="657317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -6223,7 +6272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -6243,14 +6292,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6265,57 +6314,57 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="119" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="C4" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="119" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
+      <c r="C5" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="121" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
+      <c r="C6" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6338,10 +6387,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="116"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6357,12 +6406,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="112"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6371,13 +6420,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6385,8 +6434,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="114"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6394,8 +6443,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6403,8 +6452,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6412,8 +6461,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="112"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6421,8 +6470,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6430,12 +6479,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6443,6 +6486,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6458,8 +6507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6580,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6649,10 +6698,10 @@
         <v>37</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="103.5" customHeight="1">
@@ -6680,7 +6729,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6710,7 +6759,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6729,7 +6778,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6741,10 +6790,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
@@ -6757,7 +6806,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6769,10 +6818,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
@@ -6784,7 +6833,7 @@
       <c r="D15" s="60"/>
       <c r="E15" s="61"/>
       <c r="F15" s="51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -6803,7 +6852,7 @@
       <c r="E16" s="56"/>
       <c r="F16" s="62"/>
       <c r="G16" s="62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6815,10 +6864,10 @@
         <v>37</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="46.5" customHeight="1">
@@ -6831,7 +6880,7 @@
       <c r="E17" s="56"/>
       <c r="F17" s="62"/>
       <c r="G17" s="62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6843,23 +6892,23 @@
         <v>37</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="41.25" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="56"/>
       <c r="F18" s="62"/>
       <c r="G18" s="62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -6871,22 +6920,22 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="41.25" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="103"/>
       <c r="F19" s="51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G19" s="104"/>
       <c r="H19" s="104"/>
@@ -6899,13 +6948,13 @@
       <c r="A20" s="47"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="99"/>
       <c r="F20" s="100"/>
       <c r="G20" s="100" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -6917,23 +6966,23 @@
         <v>37</v>
       </c>
       <c r="K20" s="99" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L20" s="100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1" ht="39.75" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="99"/>
       <c r="F21" s="100"/>
       <c r="G21" s="100" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>35</v>
@@ -6945,10 +6994,10 @@
         <v>37</v>
       </c>
       <c r="K21" s="99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L21" s="100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="44" customFormat="1">
@@ -7924,19 +7973,20 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="78" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
